--- a/data/financial_statements/soci/NI.xlsx
+++ b/data/financial_statements/soci/NI.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1090000000</v>
+        <v>1089500000</v>
       </c>
       <c r="C2">
-        <v>1183000000</v>
+        <v>1183200000</v>
       </c>
       <c r="D2">
-        <v>1873000000</v>
+        <v>1873300000</v>
       </c>
       <c r="E2">
-        <v>1409000000</v>
+        <v>1408600000</v>
       </c>
       <c r="F2">
-        <v>959000000</v>
+        <v>959400000</v>
       </c>
       <c r="G2">
         <v>986000000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1366</v>
+        <v>0.1356</v>
       </c>
       <c r="C3">
-        <v>0.1998</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.2118</v>
+        <v>0.212</v>
       </c>
       <c r="E3">
-        <v>0.1635</v>
+        <v>0.1632</v>
       </c>
       <c r="F3">
-        <v>0.0626</v>
+        <v>0.063</v>
       </c>
       <c r="G3">
         <v>0.0242</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>534000000</v>
+        <v>330800000</v>
       </c>
       <c r="C4">
-        <v>592000000</v>
+        <v>383700000</v>
       </c>
       <c r="D4">
-        <v>899000000</v>
+        <v>706700000</v>
       </c>
       <c r="E4">
-        <v>667000000</v>
+        <v>478900000</v>
       </c>
       <c r="F4">
-        <v>397000000</v>
+        <v>208300000</v>
       </c>
       <c r="G4">
         <v>228300000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>556000000</v>
+        <v>758700000</v>
       </c>
       <c r="C5">
-        <v>591000000</v>
+        <v>799499900</v>
       </c>
       <c r="D5">
-        <v>974000000</v>
+        <v>1166600000</v>
       </c>
       <c r="E5">
-        <v>742000000</v>
+        <v>929700200</v>
       </c>
       <c r="F5">
-        <v>562000000</v>
+        <v>751100000</v>
       </c>
       <c r="G5">
         <v>757700000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>399100000</v>
@@ -1124,7 +1235,7 @@
         <v>456300000</v>
       </c>
       <c r="F6">
-        <v>351000000</v>
+        <v>416200000</v>
       </c>
       <c r="G6">
         <v>429300000</v>
@@ -1230,8 +1341,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>156700000</v>
@@ -1352,8 +1463,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>92000000</v>
@@ -1393,23 +1504,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2000000</v>
+        <v>91600000</v>
       </c>
       <c r="C9">
-        <v>1000000</v>
+        <v>84500000</v>
       </c>
       <c r="D9">
-        <v>1000000</v>
+        <v>83700000</v>
       </c>
       <c r="E9">
-        <v>1000000</v>
+        <v>87600000</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>84400000</v>
       </c>
       <c r="G9">
         <v>84500000</v>
@@ -1515,23 +1626,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>8000000</v>
+        <v>-81500000</v>
       </c>
       <c r="C10">
-        <v>8000000</v>
+        <v>-75500000</v>
       </c>
       <c r="D10">
-        <v>115000000</v>
+        <v>-72800000</v>
       </c>
       <c r="E10">
-        <v>2000000</v>
+        <v>-84000000</v>
       </c>
       <c r="F10">
-        <v>14000000</v>
+        <v>-70100000</v>
       </c>
       <c r="G10">
         <v>-72100000</v>
@@ -1637,20 +1748,20 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>75000000</v>
+        <v>75200000</v>
       </c>
       <c r="C11">
-        <v>68000000</v>
+        <v>67800000</v>
       </c>
       <c r="D11">
-        <v>528000000</v>
+        <v>527500000</v>
       </c>
       <c r="E11">
-        <v>200000000</v>
+        <v>200400000</v>
       </c>
       <c r="F11">
         <v>77000000</v>
@@ -1759,23 +1870,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>12000000</v>
+        <v>11700000</v>
       </c>
       <c r="C12">
         <v>12000000</v>
       </c>
       <c r="D12">
-        <v>96000000</v>
+        <v>96200000</v>
       </c>
       <c r="E12">
-        <v>27000000</v>
+        <v>27200000</v>
       </c>
       <c r="F12">
-        <v>15000000</v>
+        <v>14800000</v>
       </c>
       <c r="G12">
         <v>13200000</v>
@@ -1881,8 +1992,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>63500000</v>
@@ -2003,8 +2114,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>13800000</v>
@@ -2068,8 +2179,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-2300000</v>
@@ -2103,23 +2214,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>52000000</v>
       </c>
       <c r="C16">
-        <v>53000000</v>
+        <v>53200000</v>
       </c>
       <c r="D16">
         <v>413000000</v>
       </c>
       <c r="E16">
-        <v>152000000</v>
+        <v>152200000</v>
       </c>
       <c r="F16">
-        <v>49000000</v>
+        <v>49400000</v>
       </c>
       <c r="G16">
         <v>46500000</v>
@@ -2225,23 +2336,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C17">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D17">
-        <v>0.9399999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="E17">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="F17">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G17">
         <v>0.12</v>
@@ -2347,8 +2458,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.12</v>
@@ -2363,7 +2474,7 @@
         <v>0.36</v>
       </c>
       <c r="F18">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G18">
         <v>0.11</v>
@@ -2469,23 +2580,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>407000000</v>
+        <v>406500000</v>
       </c>
       <c r="C19">
-        <v>406000000</v>
+        <v>406400000</v>
       </c>
       <c r="D19">
         <v>406000000</v>
       </c>
       <c r="E19">
-        <v>395000000</v>
+        <v>393600000</v>
       </c>
       <c r="F19">
-        <v>393000000</v>
+        <v>393200000</v>
       </c>
       <c r="G19">
         <v>393000000</v>
@@ -2591,23 +2702,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>443000000</v>
+        <v>443400000</v>
       </c>
       <c r="C20">
-        <v>440000000</v>
+        <v>440200000</v>
       </c>
       <c r="D20">
-        <v>441000000</v>
+        <v>441400000</v>
       </c>
       <c r="E20">
-        <v>429000000</v>
+        <v>417300000</v>
       </c>
       <c r="F20">
-        <v>430000000</v>
+        <v>430300000</v>
       </c>
       <c r="G20">
         <v>422900000</v>
@@ -2713,23 +2824,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.5101</v>
+        <v>0.6964</v>
       </c>
       <c r="C21">
-        <v>0.4996</v>
+        <v>0.6757</v>
       </c>
       <c r="D21">
-        <v>0.52</v>
+        <v>0.6228</v>
       </c>
       <c r="E21">
-        <v>0.5266</v>
+        <v>0.66</v>
       </c>
       <c r="F21">
-        <v>0.586</v>
+        <v>0.7829</v>
       </c>
       <c r="G21">
         <v>0.7685</v>
@@ -2835,8 +2946,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.1438</v>
@@ -2848,10 +2959,10 @@
         <v>0.3205</v>
       </c>
       <c r="E22">
-        <v>0.2018</v>
+        <v>0.2019</v>
       </c>
       <c r="F22">
-        <v>0.1534</v>
+        <v>0.1533</v>
       </c>
       <c r="G22">
         <v>0.1442</v>
@@ -2957,20 +3068,20 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.0688</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C23">
-        <v>0.0575</v>
+        <v>0.0573</v>
       </c>
       <c r="D23">
-        <v>0.2819</v>
+        <v>0.2816</v>
       </c>
       <c r="E23">
-        <v>0.1419</v>
+        <v>0.1423</v>
       </c>
       <c r="F23">
         <v>0.0803</v>
@@ -3079,23 +3190,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.0477</v>
       </c>
       <c r="C24">
-        <v>0.0448</v>
+        <v>0.045</v>
       </c>
       <c r="D24">
         <v>0.2205</v>
       </c>
       <c r="E24">
-        <v>0.1079</v>
+        <v>0.1081</v>
       </c>
       <c r="F24">
-        <v>0.0511</v>
+        <v>0.0515</v>
       </c>
       <c r="G24">
         <v>0.0472</v>
@@ -3201,23 +3312,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>360000000</v>
+        <v>359900000</v>
       </c>
       <c r="C25">
-        <v>352000000</v>
+        <v>351999900</v>
       </c>
       <c r="D25">
-        <v>688000000</v>
+        <v>793000100</v>
       </c>
       <c r="E25">
-        <v>473000000</v>
+        <v>472600200</v>
       </c>
       <c r="F25">
-        <v>335000000</v>
+        <v>336000000</v>
       </c>
       <c r="G25">
         <v>328500000</v>
@@ -3323,8 +3434,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>156700000</v>
@@ -3445,8 +3556,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>63500000</v>
@@ -3567,8 +3678,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="Z28">
         <v>3500000</v>
@@ -3614,23 +3725,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>64000000</v>
+        <v>63500000</v>
       </c>
       <c r="C29">
-        <v>56000000</v>
+        <v>55800000</v>
       </c>
       <c r="D29">
-        <v>431000000</v>
+        <v>431300000</v>
       </c>
       <c r="E29">
-        <v>173000000</v>
+        <v>173200000</v>
       </c>
       <c r="F29">
-        <v>62000000</v>
+        <v>62200000</v>
       </c>
       <c r="G29">
         <v>56900000</v>
@@ -3736,8 +3847,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.1562</v>
@@ -3858,8 +3969,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.1432</v>
@@ -3980,8 +4091,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="Z32">
         <v>0.01</v>
@@ -4027,8 +4138,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="Z33">
         <v>0.01</v>
@@ -4074,8 +4185,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0.1562</v>
@@ -4196,8 +4307,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.1432</v>
@@ -4318,8 +4429,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>443400000</v>
@@ -4440,8 +4551,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>0.3303</v>
@@ -4450,13 +4561,13 @@
         <v>0.2975</v>
       </c>
       <c r="D37">
-        <v>0.3673</v>
+        <v>0.4233</v>
       </c>
       <c r="E37">
-        <v>0.3357</v>
+        <v>0.3355</v>
       </c>
       <c r="F37">
-        <v>0.3493</v>
+        <v>0.3502</v>
       </c>
       <c r="G37">
         <v>0.3332</v>
@@ -4562,23 +4673,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.1183</v>
+        <v>0.1184</v>
       </c>
       <c r="C38">
-        <v>0.2768</v>
+        <v>0.2767</v>
       </c>
       <c r="D38">
-        <v>0.3096</v>
+        <v>0.3095</v>
       </c>
       <c r="E38">
-        <v>0.1977</v>
+        <v>0.1978</v>
       </c>
       <c r="F38">
-        <v>0.2464</v>
+        <v>0.2463</v>
       </c>
       <c r="G38">
         <v>0.2583</v>
